--- a/Figure5/MedianDaysSince1stCase_categorized_v25.xlsx
+++ b/Figure5/MedianDaysSince1stCase_categorized_v25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EB61D-B13A-F84B-A667-19495F625BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B39B6-A77B-A849-B894-F543865FEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="19680" windowWidth="25580" windowHeight="18380" xr2:uid="{E099199E-E55F-8747-847D-B946735D9B00}"/>
   </bookViews>
@@ -86,30 +86,23 @@
     <t>medianN</t>
   </si>
   <si>
-    <t>Variant-defining residues(s)</t>
-  </si>
-  <si>
-    <t>Other residues(s)</t>
-  </si>
-  <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Other residue(s)</t>
+  </si>
+  <si>
+    <t>Variant-defining residue(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +467,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +483,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,7 +505,7 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -534,8 +526,8 @@
       <c r="B5">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -545,8 +537,8 @@
       <c r="B6">
         <v>28.5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -579,7 +571,7 @@
         <v>93.5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -590,7 +582,7 @@
         <v>64.5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,7 +593,7 @@
         <v>43.5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,7 +604,7 @@
         <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -623,7 +615,7 @@
         <v>81.5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,7 +626,7 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">

--- a/Figure5/MedianDaysSince1stCase_categorized_v25.xlsx
+++ b/Figure5/MedianDaysSince1stCase_categorized_v25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B39B6-A77B-A849-B894-F543865FEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A078D-A9DC-534B-A6EE-1DC276F4BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="19680" windowWidth="25580" windowHeight="18380" xr2:uid="{E099199E-E55F-8747-847D-B946735D9B00}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
